--- a/public/start_ups_leaders.xlsx
+++ b/public/start_ups_leaders.xlsx
@@ -509,7 +509,7 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>https://twitter.com/@deinformatiekra </t>
+    <t>https://twitter.com/@deinformatiekra</t>
   </si>
   <si>
     <t>http://www.linkedin.com/pub/daniel-van-iersel/58/910/28b</t>
@@ -914,7 +914,7 @@
     <t>igor</t>
   </si>
   <si>
-    <t>http:// www.linkedin.com/in/igoropacic  </t>
+    <t>http:// www.linkedin.com/in/igoropacic</t>
   </si>
   <si>
     <t>http://www.f6s.com/quovailtd</t>
@@ -3773,7 +3773,7 @@
     <t>https://www.facebook.com/dee.saigal</t>
   </si>
   <si>
-    <t>https://twitter.com/@deesaigal </t>
+    <t>https://twitter.com/@deesaigal</t>
   </si>
   <si>
     <t>http://uk.linkedin.com/pub/dee-saigal/32/1b4/354</t>
@@ -5807,7 +5807,7 @@
     <t>Florent</t>
   </si>
   <si>
-    <t>https://twitter.com/@FlorentPoinsaut </t>
+    <t>https://twitter.com/@FlorentPoinsaut</t>
   </si>
   <si>
     <t>http://fr.linkedin.com/pub/florent-poinsaut/27/a99/57</t>
@@ -8294,7 +8294,7 @@
     <t>Peter Reuschel</t>
   </si>
   <si>
-    <t>http://www.linkedin.com/in/peterreuschel </t>
+    <t>http://www.linkedin.com/in/peterreuschel</t>
   </si>
   <si>
     <t>http://www.f6s.com/misterforchetta</t>
@@ -13010,7 +13010,7 @@
     <t>https://www.facebook.com/JadeSehbat?fref=ts</t>
   </si>
   <si>
-    <t>https://twitter.com/@JadeSehbat </t>
+    <t>https://twitter.com/@JadeSehbat</t>
   </si>
   <si>
     <t>http://www.linkedin.com/pub/jade-sehbat/11/a00/181</t>
@@ -16248,7 +16248,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16265,6 +16265,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE7F5"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5000B"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
@@ -16315,7 +16321,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -16336,6 +16342,14 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -16349,7 +16363,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -16415,8 +16429,8 @@
   </sheetPr>
   <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J10" activeCellId="0" pane="topLeft" sqref="J10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A259" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E272" activeCellId="0" pane="topLeft" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -18997,26 +19011,26 @@
       <c r="J111" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="3"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="113">
       <c r="A113" s="2" t="s">
@@ -22673,20 +22687,20 @@
       <c r="J271" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="272">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="C272" s="4" t="s">
+      <c r="C272" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
       <c r="I272" s="2"/>
       <c r="J272" s="3"/>
     </row>
@@ -25137,21 +25151,21 @@
       <c r="J377" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="378">
-      <c r="A378" s="4" t="s">
+      <c r="A378" s="6" t="s">
         <v>2031</v>
       </c>
-      <c r="B378" s="4" t="s">
+      <c r="B378" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="C378" s="4" t="s">
+      <c r="C378" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
-      <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
+      <c r="D378" s="6"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+      <c r="I378" s="6"/>
       <c r="J378" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="379">
@@ -32411,21 +32425,21 @@
       <c r="J684" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="685">
-      <c r="A685" s="4" t="s">
+      <c r="A685" s="6" t="s">
         <v>3702</v>
       </c>
-      <c r="B685" s="4" t="s">
+      <c r="B685" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="C685" s="4" t="s">
+      <c r="C685" s="6" t="s">
         <v>1456</v>
       </c>
-      <c r="D685" s="4"/>
-      <c r="E685" s="4"/>
-      <c r="F685" s="4"/>
-      <c r="G685" s="4"/>
-      <c r="H685" s="4"/>
-      <c r="I685" s="4"/>
+      <c r="D685" s="6"/>
+      <c r="E685" s="6"/>
+      <c r="F685" s="6"/>
+      <c r="G685" s="6"/>
+      <c r="H685" s="6"/>
+      <c r="I685" s="6"/>
       <c r="J685" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="686">
